--- a/data/trans_orig/OT1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{760694EA-3DA2-4630-949C-ADA932A7181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B5356F-52A0-4236-8195-20BE7129ADE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8653728-B5B1-4888-9F51-0DA2431828FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACB118EA-3CD1-4C63-A225-410BA2CCBB00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="548">
   <si>
     <t>Población con diagnóstico de otra enfermedad 1 en 2007 (Tasa respuesta: 4,15%)</t>
   </si>
@@ -212,1465 +212,1429 @@
     <t>42,92%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>6,53%</t>
+    <t>6,87%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>4,53%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>4,76%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otra enfermedad 1 en 2015 (Tasa respuesta: 6,36%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otra enfermedad 1 en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
   </si>
   <si>
     <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otra enfermedad 1 en 2015 (Tasa respuesta: 6,36%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otra enfermedad 1 en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -2130,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70CBE73-DA0F-481B-873C-11A85A1CDCF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A42471-57B1-4205-8321-71ABE24B5BBE}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4717,7 +4681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2572BE98-D811-4B49-9A2A-4A3118BE9820}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E9D88A-335B-4CC1-A487-C1DF3789BC5C}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5201,10 +5165,10 @@
         <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5213,13 +5177,13 @@
         <v>5331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -5228,13 +5192,13 @@
         <v>8280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5213,13 @@
         <v>2058</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5264,13 +5228,13 @@
         <v>7170</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5279,13 +5243,13 @@
         <v>9229</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5264,13 @@
         <v>3041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5315,13 +5279,13 @@
         <v>49503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -5330,13 +5294,13 @@
         <v>52544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5315,13 @@
         <v>5245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5366,13 +5330,13 @@
         <v>8264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -5381,13 +5345,13 @@
         <v>13509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5425,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5476,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5491,7 +5455,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5470,13 @@
         <v>19787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -5521,13 +5485,13 @@
         <v>19541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -5536,13 +5500,13 @@
         <v>39327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5521,13 @@
         <v>1030</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5578,7 +5542,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -5587,13 +5551,13 @@
         <v>1030</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,7 +5578,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5623,13 +5587,13 @@
         <v>1038</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5638,13 +5602,13 @@
         <v>1038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,7 +5629,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5674,13 +5638,13 @@
         <v>2916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5692,10 +5656,10 @@
         <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5674,13 @@
         <v>4380</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5725,13 +5689,13 @@
         <v>2073</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5740,13 +5704,13 @@
         <v>6453</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5725,13 @@
         <v>4752</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5776,13 +5740,13 @@
         <v>1005</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -5791,13 +5755,13 @@
         <v>5757</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5776,13 @@
         <v>2008</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5827,13 +5791,13 @@
         <v>3059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5842,13 +5806,13 @@
         <v>5067</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5827,13 @@
         <v>6767</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5878,13 +5842,13 @@
         <v>2329</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -5893,13 +5857,13 @@
         <v>9096</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5878,13 @@
         <v>4805</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -5929,13 +5893,13 @@
         <v>58903</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -5944,13 +5908,13 @@
         <v>63708</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5929,13 @@
         <v>6720</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -5980,13 +5944,13 @@
         <v>9072</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5995,13 +5959,13 @@
         <v>15792</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,7 +6039,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6090,7 +6054,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6105,7 +6069,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6084,13 @@
         <v>5911</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -6135,13 +6099,13 @@
         <v>4089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6150,13 +6114,13 @@
         <v>10000</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,7 +6141,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6192,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -6207,7 +6171,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,7 +6192,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6237,13 +6201,13 @@
         <v>969</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -6258,7 +6222,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,7 +6243,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6294,7 +6258,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6309,7 +6273,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6288,13 @@
         <v>5676</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6345,7 +6309,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -6354,13 +6318,13 @@
         <v>5676</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6339,13 @@
         <v>1032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6396,7 +6360,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6405,13 +6369,13 @@
         <v>1032</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6390,13 @@
         <v>1131</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6447,7 +6411,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6456,13 +6420,13 @@
         <v>1131</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6441,13 @@
         <v>3023</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6492,13 +6456,13 @@
         <v>960</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -6507,13 +6471,13 @@
         <v>3982</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6492,13 @@
         <v>1047</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="H37" s="7">
         <v>15</v>
@@ -6543,13 +6507,13 @@
         <v>17307</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -6558,13 +6522,13 @@
         <v>18354</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6543,13 @@
         <v>2026</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6594,13 +6558,13 @@
         <v>2925</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6609,13 +6573,13 @@
         <v>4951</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,7 +6653,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6704,7 +6668,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6719,7 +6683,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,13 +6698,13 @@
         <v>47804</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H41" s="7">
         <v>40</v>
@@ -6749,13 +6713,13 @@
         <v>42143</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M41" s="7">
         <v>87</v>
@@ -6764,13 +6728,13 @@
         <v>89947</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,13 +6749,13 @@
         <v>1030</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -6800,13 +6764,13 @@
         <v>2065</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -6815,13 +6779,13 @@
         <v>3095</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,7 +6806,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
@@ -6854,10 +6818,10 @@
         <v>55</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -6866,13 +6830,13 @@
         <v>2980</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6851,13 @@
         <v>2008</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -6902,13 +6866,13 @@
         <v>5090</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -6917,13 +6881,13 @@
         <v>7099</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>275</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,10 +6956,10 @@
         <v>285</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -7004,13 +6968,13 @@
         <v>4173</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M46" s="7">
         <v>16</v>
@@ -7019,13 +6983,13 @@
         <v>17009</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7004,13 @@
         <v>6089</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H47" s="7">
         <v>7</v>
@@ -7055,13 +7019,13 @@
         <v>8390</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
@@ -7070,13 +7034,13 @@
         <v>14479</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7055,13 @@
         <v>11848</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H48" s="7">
         <v>9</v>
@@ -7106,13 +7070,13 @@
         <v>10459</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="M48" s="7">
         <v>20</v>
@@ -7121,13 +7085,13 @@
         <v>22307</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7106,13 @@
         <v>8893</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H49" s="7">
         <v>115</v>
@@ -7157,13 +7121,13 @@
         <v>125713</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M49" s="7">
         <v>124</v>
@@ -7172,13 +7136,13 @@
         <v>134606</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7157,13 @@
         <v>13991</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H50" s="7">
         <v>19</v>
@@ -7208,13 +7172,13 @@
         <v>20261</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="M50" s="7">
         <v>32</v>
@@ -7223,13 +7187,13 @@
         <v>34252</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,7 +7268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F232B801-83DF-4552-A62F-E7B2EB11CB3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE23261-A65C-4E7F-9D3A-D7BF3B1616FF}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7321,7 +7285,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7449,7 +7413,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7464,7 +7428,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7443,13 @@
         <v>24767</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -7494,13 +7458,13 @@
         <v>38242</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>61</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -7509,13 +7473,13 @@
         <v>63009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7509,13 @@
         <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>337</v>
+        <v>153</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7560,13 +7524,13 @@
         <v>1016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,7 +7566,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7617,7 +7581,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,13 +7611,13 @@
         <v>969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7662,13 +7626,13 @@
         <v>969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7647,13 @@
         <v>2157</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7698,13 +7662,13 @@
         <v>1376</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -7713,13 +7677,13 @@
         <v>3532</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>343</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,13 +7698,13 @@
         <v>1880</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -7749,13 +7713,13 @@
         <v>7636</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -7764,13 +7728,13 @@
         <v>9516</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,13 +7749,13 @@
         <v>1977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7806,7 +7770,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -7815,13 +7779,13 @@
         <v>4085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,13 +7800,13 @@
         <v>5842</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -7851,13 +7815,13 @@
         <v>5397</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -7866,13 +7830,13 @@
         <v>11239</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,13 +7851,13 @@
         <v>2831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -7902,13 +7866,13 @@
         <v>45918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -7917,13 +7881,13 @@
         <v>48749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7938,13 +7902,13 @@
         <v>1083</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7953,13 +7917,13 @@
         <v>6264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -7968,13 +7932,13 @@
         <v>7347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,7 +8012,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8063,7 +8027,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8078,7 +8042,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8093,13 +8057,13 @@
         <v>39001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -8108,13 +8072,13 @@
         <v>46680</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -8123,13 +8087,13 @@
         <v>85681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,7 +8114,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -8159,13 +8123,13 @@
         <v>1120</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -8174,13 +8138,13 @@
         <v>1120</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,13 +8159,13 @@
         <v>932</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8216,7 +8180,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -8225,13 +8189,13 @@
         <v>932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,7 +8216,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -8261,13 +8225,13 @@
         <v>1075</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -8276,13 +8240,13 @@
         <v>1075</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,13 +8261,13 @@
         <v>2112</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -8312,13 +8276,13 @@
         <v>4255</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>71</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -8327,13 +8291,13 @@
         <v>6367</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,13 +8312,13 @@
         <v>6792</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -8363,13 +8327,13 @@
         <v>8611</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -8378,13 +8342,13 @@
         <v>15403</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,13 +8363,13 @@
         <v>2827</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -8414,13 +8378,13 @@
         <v>2202</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -8432,10 +8396,10 @@
         <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8450,13 +8414,13 @@
         <v>12097</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -8465,13 +8429,13 @@
         <v>3814</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>301</v>
+        <v>421</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -8480,13 +8444,13 @@
         <v>15911</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,13 +8465,13 @@
         <v>11458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -8516,13 +8480,13 @@
         <v>102409</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -8531,13 +8495,13 @@
         <v>113867</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,13 +8516,13 @@
         <v>4564</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -8567,13 +8531,13 @@
         <v>3415</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -8582,13 +8546,13 @@
         <v>7979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8662,7 +8626,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>450</v>
+        <v>103</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8692,7 +8656,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8707,13 +8671,13 @@
         <v>10984</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -8722,13 +8686,13 @@
         <v>7586</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>97</v>
+        <v>447</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -8737,13 +8701,13 @@
         <v>18571</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,7 +8728,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>450</v>
+        <v>103</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8794,7 +8758,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8815,7 +8779,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>450</v>
+        <v>103</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8845,7 +8809,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8866,7 +8830,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>450</v>
+        <v>103</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8896,7 +8860,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,13 +8875,13 @@
         <v>1004</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8941,13 +8905,13 @@
         <v>1004</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8968,7 +8932,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>450</v>
+        <v>103</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8977,13 +8941,13 @@
         <v>1544</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>465</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -8992,13 +8956,13 @@
         <v>1544</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9019,7 +8983,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>450</v>
+        <v>103</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9049,7 +9013,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9064,13 +9028,13 @@
         <v>1938</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9094,13 +9058,13 @@
         <v>1938</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9115,13 +9079,13 @@
         <v>3014</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -9130,13 +9094,13 @@
         <v>17435</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="M37" s="7">
         <v>21</v>
@@ -9145,13 +9109,13 @@
         <v>20449</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9172,7 +9136,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>450</v>
+        <v>103</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9181,13 +9145,13 @@
         <v>2564</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>219</v>
+        <v>472</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -9196,13 +9160,13 @@
         <v>2564</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>481</v>
+        <v>90</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9276,7 +9240,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>483</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9291,7 +9255,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -9306,7 +9270,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>484</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9321,13 +9285,13 @@
         <v>74752</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="H41" s="7">
         <v>84</v>
@@ -9336,13 +9300,13 @@
         <v>92508</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="M41" s="7">
         <v>157</v>
@@ -9351,13 +9315,13 @@
         <v>167261</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9378,7 +9342,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>483</v>
+        <v>280</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -9387,13 +9351,13 @@
         <v>2136</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>247</v>
+        <v>343</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -9402,13 +9366,13 @@
         <v>2136</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9423,13 +9387,13 @@
         <v>932</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -9444,7 +9408,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -9453,13 +9417,13 @@
         <v>932</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9480,7 +9444,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>483</v>
+        <v>280</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -9489,13 +9453,13 @@
         <v>2044</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -9504,13 +9468,13 @@
         <v>2044</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>484</v>
+        <v>287</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9525,13 +9489,13 @@
         <v>5272</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -9540,13 +9504,13 @@
         <v>5631</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>288</v>
+        <v>99</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="M45" s="7">
         <v>10</v>
@@ -9555,13 +9519,13 @@
         <v>10903</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9579,10 +9543,10 @@
         <v>83</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>179</v>
+        <v>495</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H46" s="7">
         <v>16</v>
@@ -9591,13 +9555,13 @@
         <v>17791</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="M46" s="7">
         <v>24</v>
@@ -9606,13 +9570,13 @@
         <v>26464</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>509</v>
+        <v>209</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9627,13 +9591,13 @@
         <v>4805</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -9642,13 +9606,13 @@
         <v>4310</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M47" s="7">
         <v>8</v>
@@ -9657,13 +9621,13 @@
         <v>9115</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>517</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9678,13 +9642,13 @@
         <v>19877</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
@@ -9693,13 +9657,13 @@
         <v>9211</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="M48" s="7">
         <v>28</v>
@@ -9708,13 +9672,13 @@
         <v>29088</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9732,10 +9696,10 @@
         <v>39</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="H49" s="7">
         <v>153</v>
@@ -9744,13 +9708,13 @@
         <v>165761</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="M49" s="7">
         <v>170</v>
@@ -9759,13 +9723,13 @@
         <v>183064</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9780,13 +9744,13 @@
         <v>5647</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>533</v>
+        <v>68</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="H50" s="7">
         <v>10</v>
@@ -9795,13 +9759,13 @@
         <v>12243</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -9810,13 +9774,13 @@
         <v>17890</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>539</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9891,7 +9855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18553561-3FD9-42C1-93BF-0D3A3AAA07F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124060EA-ADCC-4A5D-B2E5-A3E698A5FD61}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9908,7 +9872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10018,7 +9982,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -10033,7 +9997,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -10048,7 +10012,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -10072,7 +10036,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -10087,7 +10051,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -10102,7 +10066,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10123,7 +10087,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -10138,7 +10102,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -10153,7 +10117,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10174,7 +10138,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -10189,7 +10153,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -10204,7 +10168,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10225,7 +10189,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -10240,7 +10204,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -10255,7 +10219,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10276,7 +10240,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -10291,7 +10255,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -10306,7 +10270,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10327,7 +10291,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -10342,7 +10306,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -10357,7 +10321,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10378,7 +10342,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -10393,7 +10357,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -10408,7 +10372,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10429,7 +10393,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -10444,7 +10408,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -10459,7 +10423,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10480,7 +10444,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -10495,7 +10459,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -10510,7 +10474,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10531,7 +10495,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -10546,7 +10510,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -10561,7 +10525,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10632,7 +10596,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -10641,13 +10605,13 @@
         <v>2921</v>
       </c>
       <c r="I16" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -10662,7 +10626,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -10686,7 +10650,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -10701,7 +10665,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -10716,7 +10680,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10737,7 +10701,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -10752,7 +10716,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -10767,7 +10731,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10788,7 +10752,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10803,7 +10767,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -10818,7 +10782,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10839,7 +10803,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10854,7 +10818,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -10869,7 +10833,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10890,7 +10854,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10905,7 +10869,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -10920,7 +10884,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10941,7 +10905,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -10956,7 +10920,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -10971,7 +10935,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10992,7 +10956,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -11007,7 +10971,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -11022,7 +10986,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11043,7 +11007,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -11058,7 +11022,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -11073,7 +11037,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11094,7 +11058,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -11109,7 +11073,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -11124,7 +11088,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11145,7 +11109,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -11160,7 +11124,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -11175,7 +11139,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11202,7 +11166,7 @@
         <v>2921</v>
       </c>
       <c r="I27" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -11246,7 +11210,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>19</v>
@@ -11261,7 +11225,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -11276,7 +11240,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -11300,7 +11264,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -11315,7 +11279,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -11330,7 +11294,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11351,7 +11315,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -11366,7 +11330,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -11381,7 +11345,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11402,7 +11366,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -11417,7 +11381,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -11432,7 +11396,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11453,7 +11417,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -11468,7 +11432,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -11483,7 +11447,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11504,7 +11468,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -11519,7 +11483,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -11534,7 +11498,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11555,7 +11519,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -11570,7 +11534,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -11585,7 +11549,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11606,7 +11570,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -11621,7 +11585,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -11636,7 +11600,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11657,7 +11621,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -11672,7 +11636,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -11687,7 +11651,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11708,7 +11672,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -11723,7 +11687,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -11738,7 +11702,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11759,7 +11723,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -11774,7 +11738,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -11789,7 +11753,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11854,13 +11818,13 @@
         <v>3364</v>
       </c>
       <c r="D40" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>19</v>
@@ -11875,7 +11839,7 @@
         <v>17</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>19</v>
@@ -11884,13 +11848,13 @@
         <v>8716</v>
       </c>
       <c r="N40" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -11914,7 +11878,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -11929,7 +11893,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -11944,7 +11908,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11965,7 +11929,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -11980,7 +11944,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -11995,7 +11959,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12016,7 +11980,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -12031,7 +11995,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -12046,7 +12010,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12067,7 +12031,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -12082,7 +12046,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -12097,7 +12061,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12118,7 +12082,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -12133,7 +12097,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -12148,7 +12112,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12169,7 +12133,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -12184,7 +12148,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -12199,7 +12163,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12220,7 +12184,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -12235,7 +12199,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -12250,7 +12214,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12271,7 +12235,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -12286,7 +12250,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -12301,7 +12265,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -12322,7 +12286,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -12337,7 +12301,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -12352,7 +12316,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12373,7 +12337,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -12388,7 +12352,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -12403,7 +12367,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -12415,7 +12379,7 @@
         <v>3364</v>
       </c>
       <c r="D51" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>19</v>
@@ -12445,7 +12409,7 @@
         <v>8716</v>
       </c>
       <c r="N51" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/OT1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98B5356F-52A0-4236-8195-20BE7129ADE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2977132F-98AE-469C-81B5-DAE884F27CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACB118EA-3CD1-4C63-A225-410BA2CCBB00}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12FEF027-B437-4164-A790-7F3464E3C6F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="555">
   <si>
     <t>Población con diagnóstico de otra enfermedad 1 en 2007 (Tasa respuesta: 4,15%)</t>
   </si>
@@ -212,1414 +212,1435 @@
     <t>42,92%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otra enfermedad 1 en 2016 (Tasa respuesta: 6,36%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otra enfermedad 1 en 2015 (Tasa respuesta: 6,36%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>9,14%</t>
+    <t>9,11%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>Población con diagnóstico de otra enfermedad 1 en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2094,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A42471-57B1-4205-8321-71ABE24B5BBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1165311-B6B4-4B50-99B9-5D23B20339F0}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4681,7 +4702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E9D88A-335B-4CC1-A487-C1DF3789BC5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560D1750-D2A8-4903-B18F-FFD6673318C9}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5141,13 +5162,13 @@
         <v>10220</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5183,13 @@
         <v>2950</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5177,13 +5198,13 @@
         <v>5331</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -5192,13 +5213,13 @@
         <v>8280</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5234,13 @@
         <v>2058</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5228,13 +5249,13 @@
         <v>7170</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5243,13 +5264,13 @@
         <v>9229</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5285,13 @@
         <v>3041</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -5279,13 +5300,13 @@
         <v>49503</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -5294,13 +5315,13 @@
         <v>52544</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5336,13 @@
         <v>5245</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5330,13 +5351,13 @@
         <v>8264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -5345,13 +5366,13 @@
         <v>13509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,7 +5446,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5440,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5455,7 +5476,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5491,13 @@
         <v>19787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -5485,13 +5506,13 @@
         <v>19541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -5500,13 +5521,13 @@
         <v>39327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5542,13 @@
         <v>1030</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5542,7 +5563,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -5551,13 +5572,13 @@
         <v>1030</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,7 +5599,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5587,13 +5608,13 @@
         <v>1038</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5602,13 +5623,13 @@
         <v>1038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,7 +5650,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5638,13 +5659,13 @@
         <v>2916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5656,10 +5677,10 @@
         <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5695,13 @@
         <v>4380</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5689,13 +5710,13 @@
         <v>2073</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5704,13 +5725,13 @@
         <v>6453</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5746,13 @@
         <v>4752</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5740,13 +5761,13 @@
         <v>1005</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -5755,13 +5776,13 @@
         <v>5757</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5797,13 @@
         <v>2008</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -5791,13 +5812,13 @@
         <v>3059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5806,13 +5827,13 @@
         <v>5067</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5848,13 @@
         <v>6767</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5842,13 +5863,13 @@
         <v>2329</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -5857,13 +5878,13 @@
         <v>9096</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5899,13 @@
         <v>4805</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -5893,13 +5914,13 @@
         <v>58903</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -5908,13 +5929,13 @@
         <v>63708</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5950,13 @@
         <v>6720</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -5944,13 +5965,13 @@
         <v>9072</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -5959,13 +5980,13 @@
         <v>15792</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,7 +6060,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6054,7 +6075,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6069,7 +6090,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6105,13 @@
         <v>5911</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -6099,13 +6120,13 @@
         <v>4089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6114,13 +6135,13 @@
         <v>10000</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,7 +6162,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6156,7 +6177,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -6171,7 +6192,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,7 +6213,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6201,13 +6222,13 @@
         <v>969</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -6222,7 +6243,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,7 +6264,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6258,7 +6279,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6273,7 +6294,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6309,13 @@
         <v>5676</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6309,7 +6330,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -6318,13 +6339,13 @@
         <v>5676</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6360,13 @@
         <v>1032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6360,7 +6381,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6369,13 +6390,13 @@
         <v>1032</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6411,13 @@
         <v>1131</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6411,7 +6432,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6420,13 +6441,13 @@
         <v>1131</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6462,13 @@
         <v>3023</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6456,13 +6477,13 @@
         <v>960</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -6471,13 +6492,13 @@
         <v>3982</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6513,13 @@
         <v>1047</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>15</v>
@@ -6507,13 +6528,13 @@
         <v>17307</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -6522,13 +6543,13 @@
         <v>18354</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,13 +6564,13 @@
         <v>2026</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6558,13 +6579,13 @@
         <v>2925</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6573,13 +6594,13 @@
         <v>4951</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,7 +6674,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6668,7 +6689,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6683,7 +6704,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6719,13 @@
         <v>47804</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H41" s="7">
         <v>40</v>
@@ -6713,13 +6734,13 @@
         <v>42143</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M41" s="7">
         <v>87</v>
@@ -6728,13 +6749,13 @@
         <v>89947</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6770,13 @@
         <v>1030</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -6764,13 +6785,13 @@
         <v>2065</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -6779,13 +6800,13 @@
         <v>3095</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,7 +6827,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H43" s="7">
         <v>3</v>
@@ -6818,10 +6839,10 @@
         <v>55</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -6830,13 +6851,13 @@
         <v>2980</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P43" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,13 +6872,13 @@
         <v>2008</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -6866,13 +6887,13 @@
         <v>5090</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -6881,13 +6902,13 @@
         <v>7099</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +6923,13 @@
         <v>17101</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H45" s="7">
         <v>8</v>
@@ -6917,13 +6938,13 @@
         <v>8623</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M45" s="7">
         <v>24</v>
@@ -6932,13 +6953,13 @@
         <v>25724</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>283</v>
+        <v>87</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,13 +6974,13 @@
         <v>12836</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>150</v>
+        <v>283</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -6968,13 +6989,13 @@
         <v>4173</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="K46" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M46" s="7">
         <v>16</v>
@@ -6983,10 +7004,10 @@
         <v>17009</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>290</v>
@@ -7022,10 +7043,10 @@
         <v>294</v>
       </c>
       <c r="K47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M47" s="7">
         <v>13</v>
@@ -7034,13 +7055,13 @@
         <v>14479</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>297</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>298</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,13 +7076,13 @@
         <v>11848</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H48" s="7">
         <v>9</v>
@@ -7070,13 +7091,13 @@
         <v>10459</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M48" s="7">
         <v>20</v>
@@ -7178,7 +7199,7 @@
         <v>319</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="M50" s="7">
         <v>32</v>
@@ -7187,13 +7208,13 @@
         <v>34252</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,7 +7289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE23261-A65C-4E7F-9D3A-D7BF3B1616FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1622E3B-EB6F-4849-A26C-615219746E4B}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7285,7 +7306,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7413,7 +7434,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7428,7 +7449,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7464,13 @@
         <v>24767</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -7458,13 +7479,13 @@
         <v>38242</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>61</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -7473,13 +7494,13 @@
         <v>63009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7530,13 @@
         <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7524,13 +7545,13 @@
         <v>1016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,7 +7587,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7581,7 +7602,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7632,13 @@
         <v>969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7626,13 +7647,13 @@
         <v>969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,13 +7668,13 @@
         <v>2157</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7662,13 +7683,13 @@
         <v>1376</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -7677,13 +7698,13 @@
         <v>3532</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,13 +7719,13 @@
         <v>1880</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -7713,10 +7734,10 @@
         <v>7636</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>349</v>
@@ -7731,10 +7752,10 @@
         <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7770,13 @@
         <v>1977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -7770,7 +7791,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -7779,13 +7800,13 @@
         <v>4085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7821,13 @@
         <v>5842</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -7815,13 +7836,13 @@
         <v>5397</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -7830,10 +7851,10 @@
         <v>11239</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>365</v>
@@ -7866,7 +7887,7 @@
         <v>45918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>369</v>
@@ -7935,7 +7956,7 @@
         <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>380</v>
@@ -8087,13 +8108,13 @@
         <v>85681</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,13 +8144,13 @@
         <v>1120</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -8138,13 +8159,13 @@
         <v>1120</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8159,13 +8180,13 @@
         <v>932</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8189,13 +8210,13 @@
         <v>932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8246,13 @@
         <v>1075</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -8240,13 +8261,13 @@
         <v>1075</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,13 +8282,13 @@
         <v>2112</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -8276,10 +8297,10 @@
         <v>4255</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>71</v>
+        <v>397</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>402</v>
@@ -8294,7 +8315,7 @@
         <v>403</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>404</v>
@@ -8315,10 +8336,10 @@
         <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -8327,13 +8348,13 @@
         <v>8611</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>218</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -8342,13 +8363,13 @@
         <v>15403</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,13 +8384,13 @@
         <v>2827</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -8378,13 +8399,13 @@
         <v>2202</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -8396,10 +8417,10 @@
         <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,13 +8435,13 @@
         <v>12097</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -8429,7 +8450,7 @@
         <v>3814</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>421</v>
+        <v>297</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>422</v>
@@ -8450,7 +8471,7 @@
         <v>425</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,13 +8486,13 @@
         <v>11458</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -8480,13 +8501,13 @@
         <v>102409</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -8495,13 +8516,13 @@
         <v>113867</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8537,13 @@
         <v>4564</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -8531,13 +8552,13 @@
         <v>3415</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>71</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -8546,13 +8567,13 @@
         <v>7979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>437</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8626,7 +8647,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8656,7 +8677,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8671,13 +8692,13 @@
         <v>10984</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -8686,13 +8707,13 @@
         <v>7586</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -8701,13 +8722,13 @@
         <v>18571</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,7 +8749,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8758,7 +8779,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,7 +8800,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8809,7 +8830,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8830,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8860,7 +8881,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8875,13 +8896,13 @@
         <v>1004</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8905,13 +8926,13 @@
         <v>1004</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8932,7 +8953,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8941,13 +8962,13 @@
         <v>1544</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>215</v>
+        <v>455</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -8956,13 +8977,13 @@
         <v>1544</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>457</v>
+        <v>307</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8983,7 +9004,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9013,7 +9034,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,13 +9049,13 @@
         <v>1938</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9058,13 +9079,13 @@
         <v>1938</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>461</v>
+        <v>304</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9079,13 +9100,13 @@
         <v>3014</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -9094,13 +9115,13 @@
         <v>17435</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M37" s="7">
         <v>21</v>
@@ -9109,13 +9130,13 @@
         <v>20449</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>359</v>
+        <v>467</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9136,7 +9157,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9145,13 +9166,13 @@
         <v>2564</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -9160,13 +9181,13 @@
         <v>2564</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>90</v>
+        <v>471</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9240,7 +9261,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>473</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9255,7 +9276,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -9270,7 +9291,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>287</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9285,13 +9306,13 @@
         <v>74752</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H41" s="7">
         <v>84</v>
@@ -9300,13 +9321,13 @@
         <v>92508</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M41" s="7">
         <v>157</v>
@@ -9315,13 +9336,13 @@
         <v>167261</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9342,7 +9363,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>280</v>
+        <v>473</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -9351,13 +9372,13 @@
         <v>2136</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>343</v>
+        <v>484</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -9366,13 +9387,13 @@
         <v>2136</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9387,13 +9408,13 @@
         <v>932</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -9408,7 +9429,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -9417,13 +9438,13 @@
         <v>932</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9444,7 +9465,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>280</v>
+        <v>473</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -9453,13 +9474,13 @@
         <v>2044</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -9468,13 +9489,13 @@
         <v>2044</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>287</v>
+        <v>474</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>252</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9489,13 +9510,13 @@
         <v>5272</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -9504,13 +9525,13 @@
         <v>5631</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M45" s="7">
         <v>10</v>
@@ -9519,13 +9540,13 @@
         <v>10903</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>395</v>
+        <v>497</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9543,10 +9564,10 @@
         <v>83</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>495</v>
+        <v>149</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H46" s="7">
         <v>16</v>
@@ -9555,13 +9576,13 @@
         <v>17791</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="M46" s="7">
         <v>24</v>
@@ -9570,13 +9591,13 @@
         <v>26464</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>209</v>
+        <v>503</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9591,13 +9612,13 @@
         <v>4805</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>501</v>
+        <v>411</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>437</v>
+        <v>505</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -9606,13 +9627,13 @@
         <v>4310</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M47" s="7">
         <v>8</v>
@@ -9621,13 +9642,13 @@
         <v>9115</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>176</v>
+        <v>511</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>304</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9642,13 +9663,13 @@
         <v>19877</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
@@ -9657,13 +9678,13 @@
         <v>9211</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>135</v>
+        <v>516</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>511</v>
+        <v>395</v>
       </c>
       <c r="M48" s="7">
         <v>28</v>
@@ -9672,13 +9693,13 @@
         <v>29088</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>508</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9696,10 +9717,10 @@
         <v>39</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="H49" s="7">
         <v>153</v>
@@ -9708,13 +9729,13 @@
         <v>165761</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="M49" s="7">
         <v>170</v>
@@ -9723,13 +9744,13 @@
         <v>183064</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9744,13 +9765,13 @@
         <v>5647</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>68</v>
+        <v>527</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="H50" s="7">
         <v>10</v>
@@ -9759,13 +9780,13 @@
         <v>12243</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>159</v>
+        <v>324</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="M50" s="7">
         <v>15</v>
@@ -9774,13 +9795,13 @@
         <v>17890</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>229</v>
+        <v>532</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>201</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9855,7 +9876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124060EA-ADCC-4A5D-B2E5-A3E698A5FD61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AB9D07-410B-43D9-8977-A0A0C9FC030F}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9872,7 +9893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9982,7 +10003,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -9997,7 +10018,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -10012,7 +10033,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -10036,7 +10057,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -10051,7 +10072,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -10066,7 +10087,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10087,7 +10108,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -10102,7 +10123,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -10117,7 +10138,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10138,7 +10159,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -10153,7 +10174,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -10168,7 +10189,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10189,7 +10210,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -10204,7 +10225,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -10219,7 +10240,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10240,7 +10261,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -10255,7 +10276,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -10270,7 +10291,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10291,7 +10312,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -10306,7 +10327,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -10321,7 +10342,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10342,7 +10363,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -10357,7 +10378,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -10372,7 +10393,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10393,7 +10414,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -10408,7 +10429,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -10423,7 +10444,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10444,7 +10465,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -10459,7 +10480,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -10474,7 +10495,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10495,7 +10516,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -10510,7 +10531,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -10525,7 +10546,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10596,7 +10617,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -10611,7 +10632,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -10626,7 +10647,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -10650,7 +10671,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -10665,7 +10686,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -10680,7 +10701,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10701,7 +10722,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -10716,7 +10737,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -10731,7 +10752,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10752,7 +10773,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10767,7 +10788,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -10782,7 +10803,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10803,7 +10824,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10818,7 +10839,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -10833,7 +10854,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10854,7 +10875,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10869,7 +10890,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -10884,7 +10905,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10905,7 +10926,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -10920,7 +10941,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -10935,7 +10956,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10956,7 +10977,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -10971,7 +10992,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10986,7 +11007,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11007,7 +11028,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -11022,7 +11043,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -11037,7 +11058,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11058,7 +11079,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -11073,7 +11094,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -11088,7 +11109,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11109,7 +11130,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -11124,7 +11145,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -11139,7 +11160,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11210,7 +11231,7 @@
         <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>19</v>
@@ -11225,7 +11246,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>19</v>
@@ -11240,7 +11261,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -11264,7 +11285,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -11279,7 +11300,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -11294,7 +11315,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11315,7 +11336,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -11330,7 +11351,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -11345,7 +11366,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11366,7 +11387,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -11381,7 +11402,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -11396,7 +11417,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11417,7 +11438,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -11432,7 +11453,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -11447,7 +11468,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11468,7 +11489,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -11483,7 +11504,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -11498,7 +11519,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11519,7 +11540,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -11534,7 +11555,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -11549,7 +11570,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11570,7 +11591,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -11585,7 +11606,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -11600,7 +11621,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11621,7 +11642,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -11636,7 +11657,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -11651,7 +11672,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11672,7 +11693,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -11687,7 +11708,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -11702,7 +11723,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11723,7 +11744,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -11738,7 +11759,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -11753,7 +11774,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11824,7 +11845,7 @@
         <v>17</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>19</v>
@@ -11839,7 +11860,7 @@
         <v>17</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>19</v>
@@ -11854,7 +11875,7 @@
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -11878,23 +11899,23 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M41" s="7">
         <v>0</v>
       </c>
@@ -11908,7 +11929,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11929,23 +11950,23 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M42" s="7">
         <v>0</v>
       </c>
@@ -11959,7 +11980,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11980,23 +12001,23 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M43" s="7">
         <v>0</v>
       </c>
@@ -12010,7 +12031,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12031,23 +12052,23 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M44" s="7">
         <v>0</v>
       </c>
@@ -12061,7 +12082,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12082,23 +12103,23 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M45" s="7">
         <v>0</v>
       </c>
@@ -12112,7 +12133,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12133,23 +12154,23 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M46" s="7">
         <v>0</v>
       </c>
@@ -12163,7 +12184,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12184,23 +12205,23 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M47" s="7">
         <v>0</v>
       </c>
@@ -12214,7 +12235,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12235,23 +12256,23 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M48" s="7">
         <v>0</v>
       </c>
@@ -12265,7 +12286,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -12286,23 +12307,23 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M49" s="7">
         <v>0</v>
       </c>
@@ -12316,7 +12337,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12337,23 +12358,23 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="M50" s="7">
         <v>0</v>
       </c>
@@ -12367,7 +12388,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/OT1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5248819-0E31-45E6-BF49-0D30FFB3C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10954F9A-5120-4B53-916D-B9724564776A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86AC9BF0-EE18-4F86-AC41-AF5D6875AD93}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A68406FF-79A9-4A8A-9B35-1BDA075C641C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -2060,7 +2060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20084F0A-1497-434A-8079-47C7BFC31E2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C040BCFC-ACED-45CE-B9C7-C4B72E9F9B25}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4443,7 +4443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D0E75E-FF3E-4CA4-82C2-12D677419A60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E87707D-B181-4D4A-B0D7-7C4801C673E7}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6826,7 +6826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F514EFE6-DCCD-4EC0-A9DC-61AAB9AFC899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE936D-D544-41FE-8863-080F4EA02D30}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
